--- a/data_sac_raw.xlsx
+++ b/data_sac_raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dikii\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43BE22BA-CDE7-4628-97EF-3D1FE0DD0354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544141FC-F958-4E08-A392-420808F37084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D0F3AE80-4F41-4A61-BB3A-BF5A4D700F03}"/>
   </bookViews>
@@ -176,9 +176,6 @@
     <t>APK_SD</t>
   </si>
   <si>
-    <t>APK_ SMP</t>
-  </si>
-  <si>
     <t>APK_SMA</t>
   </si>
   <si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>persentase_akses_internet</t>
+  </si>
+  <si>
+    <t>APK_SMP</t>
   </si>
 </sst>
 </file>
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4001E381-2DFD-4E10-89C7-7DE3D11DBB12}">
   <dimension ref="A1:DB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CM19" workbookViewId="0">
-      <selection activeCell="DE37" sqref="DE37"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="BI10" sqref="BI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -867,157 +867,157 @@
         <v>45</v>
       </c>
       <c r="BD1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="BG1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="BH1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="BI1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="BJ1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="BK1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="BE1" s="10" t="s">
+      <c r="BL1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="BF1" s="10" t="s">
+      <c r="BM1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="BG1" s="10" t="s">
+      <c r="BN1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="BH1" s="10" t="s">
+      <c r="BO1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="BI1" s="10" t="s">
+      <c r="BP1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="BJ1" s="10" t="s">
+      <c r="BQ1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="BK1" s="10" t="s">
+      <c r="BR1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="BL1" s="10" t="s">
+      <c r="BS1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="BM1" s="10" t="s">
+      <c r="BT1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="BN1" s="10" t="s">
+      <c r="BU1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="BO1" s="10" t="s">
+      <c r="BV1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="BP1" s="10" t="s">
+      <c r="BW1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="BQ1" s="10" t="s">
+      <c r="BX1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="BR1" s="11" t="s">
+      <c r="BY1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="BS1" s="11" t="s">
+      <c r="BZ1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="BT1" s="11" t="s">
+      <c r="CA1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="BU1" s="11" t="s">
+      <c r="CB1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="BV1" s="11" t="s">
+      <c r="CC1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="BW1" s="11" t="s">
+      <c r="CD1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="BX1" s="11" t="s">
+      <c r="CE1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="BY1" s="10" t="s">
+      <c r="CF1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="BZ1" s="10" t="s">
+      <c r="CG1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="CA1" s="10" t="s">
+      <c r="CH1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="CB1" s="10" t="s">
+      <c r="CI1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="CC1" s="10" t="s">
+      <c r="CJ1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="CD1" s="10" t="s">
+      <c r="CK1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="CE1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="CF1" s="11" t="s">
+      <c r="CL1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="CG1" s="11" t="s">
+      <c r="CM1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="CH1" s="11" t="s">
+      <c r="CN1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="CI1" s="11" t="s">
+      <c r="CO1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="CJ1" s="11" t="s">
+      <c r="CP1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="CK1" s="11" t="s">
+      <c r="CQ1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="CL1" s="11" t="s">
+      <c r="CR1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="CS1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="CM1" s="11" t="s">
+      <c r="CT1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="CN1" s="11" t="s">
+      <c r="CU1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="CO1" s="11" t="s">
+      <c r="CV1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="CP1" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="CQ1" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="CR1" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="CS1" s="10" t="s">
+      <c r="CW1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="CT1" s="10" t="s">
+      <c r="CX1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="CU1" s="10" t="s">
+      <c r="CY1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="CV1" s="10" t="s">
+      <c r="CZ1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="CW1" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="CX1" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="CY1" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="CZ1" s="11" t="s">
-        <v>53</v>
-      </c>
       <c r="DA1" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="DB1" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:106" x14ac:dyDescent="0.35">
